--- a/cargalectiva-masivo.xlsx
+++ b/cargalectiva-masivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD02DC-837F-4471-AE51-7EC51FA72581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2323E95B-D2EB-4A75-A770-BFC922FDE603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="cargas" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
   <si>
     <t>HORAE</t>
   </si>
@@ -75,18 +75,9 @@
     <t>DIA</t>
   </si>
   <si>
-    <t>JUEVES</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>MARTES</t>
-  </si>
-  <si>
-    <t>VIERNES</t>
-  </si>
-  <si>
     <t>VILCA ARANA MIRIAM</t>
   </si>
   <si>
@@ -264,43 +255,16 @@
     <t>HORASREGISTRADAS</t>
   </si>
   <si>
-    <t>CB.4 - 684 - FÍSICA - 2764</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>CB.4 - 684 - FÍSICA - 2770</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>AG43 - 570 - FÍSICA II - 2778</t>
-  </si>
-  <si>
-    <t>AG43 - 570 - FÍSICA II - 2784</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=2764</t>
-  </si>
-  <si>
-    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=2770</t>
-  </si>
-  <si>
-    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=2778</t>
-  </si>
-  <si>
-    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=2784</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>1-5</t>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=2756</t>
+  </si>
+  <si>
+    <t>AG56 - 611 - EDAFOLOGIA - 2756</t>
+  </si>
+  <si>
+    <t>CABRERA VIGIL CARLOS EUSEBIO</t>
+  </si>
+  <si>
+    <t>SABADO</t>
   </si>
 </sst>
 </file>
@@ -993,7 +957,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,25 +976,25 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -1048,220 +1012,83 @@
         <v>1</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>75</v>
+      <c r="E2">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2">
         <v>0.34375</v>
       </c>
       <c r="L2" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>85</v>
-      </c>
+        <v>0.5625</v>
+      </c>
+      <c r="M2" s="12"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>85</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="M3" s="12"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="M4" s="12"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="8">
-        <v>6</v>
-      </c>
-      <c r="I5" s="8">
-        <v>16</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.84375</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.9375</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="12"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="13">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="8"/>
+      <c r="M6" s="12"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1535,577 +1362,577 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
